--- a/data/income_statement/3digits/total/851_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/851_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>851-Pre-primary education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>851-Pre-primary education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>23572.79701</v>
@@ -962,31 +868,36 @@
         <v>70909.95420000001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>89879.56904</v>
+        <v>89879.56903999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>138605.93162</v>
+        <v>138847.00875</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>226511.22076</v>
+        <v>229680.10526</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>308610.13311</v>
+        <v>324177.0891</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>434168.00901</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>639122.4206699999</v>
+        <v>642856.63662</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>867647.31534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>883987.42784</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>750074.143</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>22444.0303</v>
@@ -1007,25 +918,30 @@
         <v>133096.03946</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>214666.74477</v>
+        <v>217753.70733</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>298341.36077</v>
+        <v>313733.71046</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>416195.67187</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>604103.4877000001</v>
+        <v>607770.31648</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>826918.3459499999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>842698.6534600001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>702945.2439999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>141.20938</v>
@@ -1060,14 +976,19 @@
       <c r="M7" s="48" t="n">
         <v>6744.938609999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>6564.023</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>987.5573300000001</v>
+        <v>987.55733</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>2771.60119</v>
@@ -1082,28 +1003,33 @@
         <v>4001.13333</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5468.08665</v>
+        <v>5709.16378</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>11691.2406</v>
+        <v>11773.16254</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9854.050650000001</v>
+        <v>10028.65695</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>14652.75937</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22313.4333</v>
+        <v>22380.82047</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33984.03078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34543.83577</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>40564.876</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>72.93670999999999</v>
@@ -1127,7 +1053,7 @@
         <v>898.07735</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>793.42413</v>
+        <v>2447.46594</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>3662.14994</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>15678.4111</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>14861.584</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>72.71448999999998</v>
@@ -1166,7 +1097,7 @@
         <v>265.18134</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>363.12001</v>
+        <v>393.99316</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>371.86612</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>2971.896769999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>3423.943</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.22222</v>
@@ -1205,7 +1141,7 @@
         <v>632.89601</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>429.422</v>
+        <v>2052.59066</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>3209.08252</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>12703.1245</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>11372.496</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3.38983</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>65.145</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>23499.8603</v>
@@ -1277,28 +1223,33 @@
         <v>89831.20887999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>138334.81436</v>
+        <v>138575.89149</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>225613.14341</v>
+        <v>228782.02791</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>307816.70898</v>
+        <v>321729.62316</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>430505.85907</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>623746.5881899999</v>
+        <v>627480.8041400001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>851968.9042400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>868309.01674</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>735212.559</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>16787.84181</v>
@@ -1310,34 +1261,39 @@
         <v>30592.00283</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>54491.04158999999</v>
+        <v>54491.04159</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>66625.05815</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>105592.58866</v>
+        <v>105673.90585</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>169465.08752</v>
+        <v>172511.15688</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>241573.878</v>
+        <v>256333.24727</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>354264.29065</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>551865.8107200001</v>
+        <v>555994.4831</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>753727.25431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>768067.7401800001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>548697.752</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>517.89152</v>
@@ -1361,7 +1317,7 @@
         <v>2160.9025</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1414.73381</v>
+        <v>1415.65745</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2131.80624</v>
@@ -1370,13 +1326,18 @@
         <v>9331.93111</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>30810.07321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>32702.87786</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16878.347</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2162.17517</v>
@@ -1400,22 +1361,27 @@
         <v>7499.87563</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6949.191069999999</v>
+        <v>7411.89133</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>18410.94879</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>60006.44056</v>
+        <v>60064.68156</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>83377.83738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>84084.19052</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>45279.395</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>14104.48893</v>
@@ -1430,31 +1396,36 @@
         <v>48890.274</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>62503.47048999999</v>
+        <v>62503.47049</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>93958.28473999999</v>
+        <v>94039.60193</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>154640.94112</v>
+        <v>157687.01048</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>231920.45397</v>
+        <v>246216.19934</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>325865.8702</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>480747.28012</v>
+        <v>484817.7115</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>632779.5701700001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>644451.59535</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>480963.164</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3.28619</v>
@@ -1481,19 +1452,24 @@
         <v>1289.49915</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7855.66542</v>
+        <v>7855.665420000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>1780.15893</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6759.77355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6829.07645</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5576.846</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>6712.01849</v>
@@ -1511,31 +1487,36 @@
         <v>23206.15073</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>32742.2257</v>
+        <v>32901.98564</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>56148.05589</v>
+        <v>56270.87103</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>66242.83098</v>
+        <v>65396.37589</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>76241.56842</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>71880.77747</v>
+        <v>71486.32104000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>98241.64992999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>100241.27656</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>186514.807</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9672.903470000001</v>
+        <v>9672.903469999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>10733.73738</v>
@@ -1550,28 +1531,33 @@
         <v>34619.17771</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>53726.66043</v>
+        <v>53941.06159999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>84335.07300999999</v>
+        <v>84560.55598</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>115768.10783</v>
+        <v>119411.23803</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>144095.65325</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>182442.01387</v>
+        <v>183820.615</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>230082.41561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>233966.73979</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>192405.743</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>21.28145</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>16.335</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>20.368</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>600.4386999999999</v>
@@ -1631,25 +1622,30 @@
         <v>3195.07352</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4829.68294</v>
+        <v>4832.955849999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>5562.67089</v>
+        <v>5752.45593</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>5811.130929999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13289.86772</v>
+        <v>13326.92296</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>19878.85004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20062.1286</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7955.992</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>9051.18332</v>
@@ -1667,37 +1663,42 @@
         <v>32724.79708</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>50531.58691000001</v>
+        <v>50745.98808</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>79441.86063</v>
+        <v>79664.07068999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>110129.50314</v>
+        <v>113582.8483</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>138223.2222</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>169150.94615</v>
+        <v>170492.49204</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>210187.23057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>213888.27619</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>184429.383</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-2960.88498</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-580.0471299999999</v>
+        <v>-580.0471299999997</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-5482.659769999999</v>
+        <v>-5482.65977</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>-11337.64577</v>
@@ -1706,28 +1707,33 @@
         <v>-11413.02698</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-20984.43473</v>
+        <v>-21039.07596</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-28187.01712</v>
+        <v>-28289.68495</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-49525.27684999999</v>
+        <v>-54014.86214</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-67854.08482999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-110561.2364</v>
+        <v>-112334.29396</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-131840.76568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-133725.46323</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-5890.936</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1227.37169</v>
@@ -1736,7 +1742,7 @@
         <v>1215.10095</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9143.846870000001</v>
+        <v>9143.846869999999</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>1957.90521</v>
@@ -1748,25 +1754,30 @@
         <v>1706.85177</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6468.46509</v>
+        <v>6502.745849999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16529.93529</v>
+        <v>16700.11631</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>6938.30161</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>18201.9259</v>
+        <v>18216.00788</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18575.60575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>18662.95888</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>26119.683</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>250.0605</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>96.66500000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>11.49813</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>210.42332</v>
@@ -1865,25 +1886,30 @@
         <v>470.10838</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1052.26226</v>
+        <v>1085.55273</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>816.51702</v>
+        <v>963.74464</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1613.53468</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5102.27411</v>
+        <v>5102.322480000001</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>6163.68941</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>5676.115</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>48</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>181.91143</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2182.982</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1949,7 +1980,7 @@
         <v>109.43495</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>79.06991000000001</v>
+        <v>79.06990999999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>70.45493999999999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>86.577</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>389.959</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5.617319999999999</v>
@@ -1991,22 +2027,27 @@
         <v>73.78057000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>76.89089999999999</v>
+        <v>76.8909</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>48.11254</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>121.93</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>938.0289799999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>849.6642300000001</v>
+        <v>849.66423</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>1084.13255</v>
@@ -2024,7 +2065,7 @@
         <v>167.76522</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>401.34577</v>
+        <v>402.71712</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1346.7846</v>
@@ -2033,13 +2074,18 @@
         <v>7411.62299</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2880.82203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2881.63411</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9459.739</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.562720000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3.06562</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>18.73935</v>
@@ -2135,28 +2191,33 @@
         <v>389.13002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>890.73642</v>
+        <v>890.7364200000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2285.3998</v>
+        <v>2286.39009</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3335.3242</v>
+        <v>3356.90625</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3708.99527</v>
+        <v>3708.995269999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5317.813550000001</v>
+        <v>5331.84716</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8949.86909</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9036.41014</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>8192.293</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>727.7760599999999</v>
@@ -2168,7 +2229,7 @@
         <v>223.80245</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>76.62698000000002</v>
+        <v>76.62697999999999</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>125.40641</v>
@@ -2177,25 +2238,30 @@
         <v>390.78043</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4182.856519999999</v>
+        <v>4183.80621</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3870.58967</v>
+        <v>3870.76065</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>4176.198969999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7354.750109999999</v>
+        <v>7368.24212</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9570.792300000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9638.899889999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6141.646</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9.802190000000001</v>
@@ -2213,10 +2279,10 @@
         <v>13.59234</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>40.07092999999999</v>
+        <v>40.07093</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>94.42095</v>
+        <v>95.36856</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>85.83058</v>
@@ -2225,16 +2291,21 @@
         <v>155.93107</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>988.1752299999999</v>
+        <v>1001.66724</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>690.39702</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>691.5340799999998</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>127.957</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>15.42553</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>117.49084</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3666.611</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>17.31517</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>687.9360800000001</v>
+        <v>687.9360799999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>617.55037</v>
@@ -2327,7 +2408,7 @@
         <v>8.15883</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>45.20106999999999</v>
+        <v>45.20107000000001</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>180.65894</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>5000.57021</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>2046.704</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>14.61226</v>
@@ -2450,10 +2546,10 @@
         <v>162.83995</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3896.38591</v>
+        <v>3896.38799</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3648.40352</v>
+        <v>3648.5745</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>3784.52268</v>
@@ -2462,16 +2558,21 @@
         <v>3987.83357</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3745.01906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3811.98959</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>300.374</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>445.4413200000001</v>
+        <v>445.44132</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>261.81863</v>
@@ -2489,25 +2590,30 @@
         <v>2224.81784</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4452.72809</v>
+        <v>4508.46191</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6904.61417</v>
+        <v>7444.16859</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>10501.95901</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>21489.2855</v>
+        <v>21506.43431</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>34694.1116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>35185.98532</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>25319.305</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>436.68164</v>
@@ -2528,25 +2634,30 @@
         <v>2197.54398</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4139.206889999999</v>
+        <v>4194.94071</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6711.32931</v>
+        <v>7250.88373</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>10077.10945</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>21180.80448</v>
+        <v>21197.95329</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>34243.53148000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>34735.4052</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>20543.021</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8.759679999999999</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>450.58012</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4776.284</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-2906.73067</v>
@@ -2603,28 +2719,33 @@
         <v>-12644.35205</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-21893.18123</v>
+        <v>-21947.82246</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-30354.13664</v>
+        <v>-30479.20722</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-43770.5454</v>
+        <v>-48629.67506999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-75593.9412</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-121203.34611</v>
+        <v>-122992.96251</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-157530.06383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-159887.38956</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-11232.204</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>250.61147</v>
@@ -2636,7 +2757,7 @@
         <v>448.8394699999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>772.47568</v>
+        <v>772.4756799999999</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>716.3339599999999</v>
@@ -2645,25 +2766,30 @@
         <v>1673.82717</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3410.17465</v>
+        <v>3463.85208</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4140.291510000001</v>
+        <v>4131.305579999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>6514.18866</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8574.057199999999</v>
+        <v>8612.037279999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14592.80446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14760.59807</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>10115.379</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9.099</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>161.21251</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>129.905</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>241.51247</v>
@@ -2714,34 +2845,39 @@
         <v>403.77197</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>575.20592</v>
+        <v>575.2059199999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>657.18858</v>
+        <v>657.1885800000001</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>1673.58186</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3041.24287</v>
+        <v>3094.9203</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4123.0249</v>
+        <v>4114.03897</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>6513.511280000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8572.74775</v>
+        <v>8610.72783</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14431.59195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>14599.38556</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9985.474</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>339.58962</v>
@@ -2762,25 +2898,30 @@
         <v>7741.01773</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1863.30987</v>
+        <v>1929.57587</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9275.678390000001</v>
+        <v>9124.630929999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>8980.025079999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>9369.592210000001</v>
+        <v>9371.652729999998</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9043.38399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9123.31891</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9114.932000000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>776.0467600000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>279.572</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>32.69768</v>
@@ -2843,25 +2989,30 @@
         <v>162.02589</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>279.856</v>
+        <v>280.57841</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3411.17746</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>203.71058</v>
+        <v>204.24791</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>364.67081</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>510.386</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>306.8919399999999</v>
+        <v>306.89194</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>359.7995</v>
@@ -2870,7 +3021,7 @@
         <v>5483.58054</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>887.74846</v>
+        <v>887.7484599999999</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>1222.66377</v>
@@ -2879,31 +3030,36 @@
         <v>7159.1769</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1598.04035</v>
+        <v>1664.30635</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8498.576509999999</v>
+        <v>8346.806640000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4695.522359999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8624.513869999999</v>
+        <v>8626.037059999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7902.66642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7982.60134</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8324.974</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-2995.70882</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-424.7418499999999</v>
+        <v>-424.74185</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-2010.217600000001</v>
@@ -2915,28 +3071,33 @@
         <v>-13407.64984</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-27960.37179</v>
+        <v>-28015.01302</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-28807.27186</v>
+        <v>-28944.93101</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-48905.93228</v>
+        <v>-53623.00042</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-78059.77761999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-121998.88112</v>
+        <v>-123752.57796</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-151980.64336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-154250.1104</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-10231.757</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>203.40696</v>
@@ -2954,28 +3115,33 @@
         <v>746.51572</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>970.09785</v>
+        <v>970.0978500000001</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>1239.84413</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1569.88586</v>
+        <v>1569.37064</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1844.65001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2226.93141</v>
+        <v>2228.46692</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2418.89618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2561.64762</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5817.961</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-3199.11578</v>
@@ -2993,25 +3159,28 @@
         <v>-14154.16556</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-28930.46964</v>
+        <v>-28985.11087</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-30047.11599</v>
+        <v>-30184.77514</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-50475.81814</v>
+        <v>-55192.37106</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-79904.42763000001</v>
+        <v>-79904.42762999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-124225.81253</v>
+        <v>-125981.04488</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-154399.53954</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-156811.75802</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-16049.718</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>199</v>
@@ -3047,25 +3219,28 @@
         <v>461</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1033</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1156</v>
+        <v>1203</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1284</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>